--- a/data/trans_dic/P25A$voluntad-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,57; 72,79</t>
+          <t>45,84; 73,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67,08; 85,53</t>
+          <t>66,29; 85,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64,36; 84,74</t>
+          <t>66,11; 84,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,73; 88,79</t>
+          <t>43,56; 89,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,65; 91,36</t>
+          <t>64,18; 91,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,2; 85,82</t>
+          <t>59,66; 84,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,05; 73,56</t>
+          <t>51,7; 74,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,62; 85,41</t>
+          <t>69,65; 85,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,63; 81,67</t>
+          <t>66,74; 82,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,34; 65,39</t>
+          <t>46,9; 65,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,73; 75,52</t>
+          <t>58,56; 76,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,22; 67,46</t>
+          <t>43,74; 68,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,8; 77,37</t>
+          <t>41,92; 80,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>75,18; 93,19</t>
+          <t>75,53; 94,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,91; 89,48</t>
+          <t>56,93; 89,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,91; 65,08</t>
+          <t>49,21; 65,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,47; 79,42</t>
+          <t>66,25; 80,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,79; 70,59</t>
+          <t>51,26; 70,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,35; 74,77</t>
+          <t>49,79; 74,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,54; 80,04</t>
+          <t>60,15; 79,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,74; 65,69</t>
+          <t>41,8; 65,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,28; 93,73</t>
+          <t>52,76; 93,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,48; 88,51</t>
+          <t>57,52; 89,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,49; 86,85</t>
+          <t>51,82; 86,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,59; 75,75</t>
+          <t>55,4; 76,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>61,99; 80,18</t>
+          <t>62,79; 80,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,4; 68,36</t>
+          <t>48,96; 69,55</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,1; 73,99</t>
+          <t>53,12; 74,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,45; 80,23</t>
+          <t>61,51; 79,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,22; 68,48</t>
+          <t>46,08; 68,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,61; 76,73</t>
+          <t>45,67; 75,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,69; 93,67</t>
+          <t>72,75; 93,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,22; 73,68</t>
+          <t>43,02; 73,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,03; 72,52</t>
+          <t>53,08; 70,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,45; 81,88</t>
+          <t>67,17; 81,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,23; 66,74</t>
+          <t>48,99; 66,88</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,97; 90,02</t>
+          <t>67,02; 90,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>59,35; 86,2</t>
+          <t>58,11; 84,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,3; 77,48</t>
+          <t>42,31; 77,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>74,42; 96,87</t>
+          <t>73,93; 96,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,22; 84,4</t>
+          <t>49,69; 85,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,81; 68,27</t>
+          <t>21,0; 67,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,77; 91,13</t>
+          <t>75,55; 92,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,95; 82,3</t>
+          <t>60,16; 82,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,3; 67,36</t>
+          <t>40,92; 67,33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,5; 56,48</t>
+          <t>29,64; 56,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>61,21; 81,21</t>
+          <t>61,51; 80,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,78; 82,46</t>
+          <t>55,29; 83,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,17; 77,27</t>
+          <t>27,69; 77,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,41; 95,38</t>
+          <t>59,56; 95,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>60,69; 100,0</t>
+          <t>61,2; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,89; 57,85</t>
+          <t>34,09; 57,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>64,85; 82,35</t>
+          <t>64,76; 82,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62,38; 83,85</t>
+          <t>62,88; 84,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>46,88; 66,15</t>
+          <t>47,25; 67,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>59,65; 75,24</t>
+          <t>60,1; 75,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,97; 51,14</t>
+          <t>33,74; 52,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,17; 73,54</t>
+          <t>38,29; 73,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,44; 82,97</t>
+          <t>65,59; 83,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,9; 75,42</t>
+          <t>55,28; 75,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47,81; 65,11</t>
+          <t>48,48; 65,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>64,25; 76,47</t>
+          <t>64,45; 76,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,53; 58,95</t>
+          <t>44,74; 58,85</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,05; 58,91</t>
+          <t>41,4; 58,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,69; 59,61</t>
+          <t>41,07; 60,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>64,19; 81,58</t>
+          <t>64,82; 82,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>53,28; 75,86</t>
+          <t>53,42; 75,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>56,84; 79,13</t>
+          <t>56,31; 79,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,86; 87,82</t>
+          <t>67,24; 88,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>48,75; 62,11</t>
+          <t>48,84; 62,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,59; 64,54</t>
+          <t>49,43; 63,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>69,05; 82,4</t>
+          <t>68,74; 82,01</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>53,85; 61,65</t>
+          <t>53,55; 61,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,91; 70,62</t>
+          <t>64,17; 70,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>56,33; 63,93</t>
+          <t>56,39; 64,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>60,06; 71,86</t>
+          <t>59,98; 72,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>73,32; 81,51</t>
+          <t>72,9; 81,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>65,07; 74,74</t>
+          <t>64,35; 74,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>56,47; 63,24</t>
+          <t>56,52; 63,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>67,98; 73,47</t>
+          <t>67,85; 73,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>60,28; 66,77</t>
+          <t>60,47; 66,96</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, por propia voluntad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27566</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62616</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>59797</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14104</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32057</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37946</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41670</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>94672</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>97743</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21291; 33970</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53758; 69692</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>52197; 66957</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8743; 17908</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25691; 36647</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31012; 44010</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34393; 49588</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84363; 103353</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>87392; 107468</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>63879</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>80941</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>40269</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15846</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>51515</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21995</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>79725</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>132456</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>62264</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>53391; 74040</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>70828; 92023</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31637; 49455</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10838; 20777</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>45176; 56412</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16676; 26181</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>68748; 91598</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>119758; 145430</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>52089; 71600</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40111</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>58092</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33345</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11382</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24906</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20029</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51493</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>82998</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>53374</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31737; 47255</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49507; 65676</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25917; 40629</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7510; 13345</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18854; 29251</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14306; 23796</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43195; 59854</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>72264; 92104</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43876; 62329</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>48685</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>74737</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>50906</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22835</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39686</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26585</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>71520</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>114423</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>77491</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40304; 56665</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64855; 83777</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>40135; 59342</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17209; 28487</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>33822; 43492</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19213; 32878</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>60278; 80504</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>102053; 124492</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64554; 88123</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>33332</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>37145</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19033</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25970</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18679</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7390</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>59301</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>55824</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26424</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>27553; 37044</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>29299; 42758</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13424; 24667</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21459; 28126</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13344; 22863</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3589; 11502</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>52993; 64545</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>46492; 63594</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19973; 32867</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22675</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>59415</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>31559</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10269</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18022</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14079</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>32944</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>77437</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>45638</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>15670; 30005</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>51126; 67291</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>24534; 36959</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5209; 14491</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13014; 20832</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10281; 16800</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24435; 41421</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>67976; 86268</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>38465; 51948</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>53161</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>110524</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>53735</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18390</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>68908</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>55673</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>71551</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>179431</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>109408</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>43548; 62502</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>97681; 123133</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>42816; 66400</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12585; 24088</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>60222; 76769</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>46673; 64153</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>60616; 81759</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>163923; 193648</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>94550; 124368</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>69542</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>66103</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>75678</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>47049</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>45885</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>50585</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>116590</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>111987</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>126262</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>57349; 81186</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>53480; 78205</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>66180; 84035</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>38562; 54791</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>37688; 52906</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>42998; 56451</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>102898; 131482</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>97460; 126053</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>114131; 136167</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>358950</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>549572</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>364322</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>165844</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>299655</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>234281</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>524794</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>849228</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>598604</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>334485; 382759</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>523706; 578177</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>341428; 388135</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>150391; 181985</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>281802; 316349</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>216088; 251543</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>494708; 553869</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>816026; 881413</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>569218; 630305</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>